--- a/addresses.xlsx
+++ b/addresses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>File Name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Address</t>
   </si>
   <si>
+    <t>Coordinates</t>
+  </si>
+  <si>
     <t>e-1.pdf</t>
   </si>
   <si>
@@ -47,6 +50,18 @@
   </si>
   <si>
     <t>BAHCELIEVLER MAH. 1635. SK. NO:6, MERKEZ/BATMAN</t>
+  </si>
+  <si>
+    <t>N: 37° 53' 28.60"    E: 41° 07' 25.70"</t>
+  </si>
+  <si>
+    <t>N: 37° 52' 49.36"    E: 41° 07' 03.64"</t>
+  </si>
+  <si>
+    <t>N: 37° 54' 13.53"    E: 41° 07' 56.21"</t>
+  </si>
+  <si>
+    <t>N: 37° 53' 24.80"    E: 41° 08' 07.70"</t>
   </si>
 </sst>
 </file>
@@ -404,55 +419,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/addresses.xlsx
+++ b/addresses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>File Name</t>
   </si>
@@ -25,43 +25,241 @@
     <t>Coordinates</t>
   </si>
   <si>
-    <t>e-1.pdf</t>
-  </si>
-  <si>
-    <t>e-2.pdf</t>
-  </si>
-  <si>
-    <t>e-3.pdf</t>
-  </si>
-  <si>
-    <t>e-4.pdf</t>
-  </si>
-  <si>
-    <t>e-5.pdf</t>
-  </si>
-  <si>
-    <t>SAĞLIK MAH. 7. CAD. HAVA LOKALI KARŞISI DEMİR APT., MERKEZ/BATMAN</t>
+    <t>BT08031670232199269.pdf</t>
+  </si>
+  <si>
+    <t>BT08011670240511296.pdf</t>
+  </si>
+  <si>
+    <t>BT0801Kontratsözle_me.pdf</t>
+  </si>
+  <si>
+    <t>LBT0801BTK1672838175798.pdf</t>
+  </si>
+  <si>
+    <t>LBT0801TSS1672838141392.pdf</t>
+  </si>
+  <si>
+    <t>BT08021670241110656.pdf</t>
+  </si>
+  <si>
+    <t>BT0802Kontratsözle_me.pdf</t>
+  </si>
+  <si>
+    <t>LBT0802_800&amp;1800&amp;2600BTK1672845567598.pdf</t>
+  </si>
+  <si>
+    <t>LBT0802_TSS.pdf</t>
+  </si>
+  <si>
+    <t>BT0803Kontratsözle_me.pdf</t>
+  </si>
+  <si>
+    <t>LBT0803_BTK1672852116135.pdf</t>
+  </si>
+  <si>
+    <t>LBT0803_TSSR(1).pdf</t>
+  </si>
+  <si>
+    <t>BT08041670240905956.pdf</t>
+  </si>
+  <si>
+    <t>BT0804Kontratsözle_me.pdf</t>
+  </si>
+  <si>
+    <t>LBT0804-BTK1672845212595.pdf</t>
+  </si>
+  <si>
+    <t>LBT0804TSS.pdf</t>
+  </si>
+  <si>
+    <t>BT0806.pdf</t>
+  </si>
+  <si>
+    <t>BT0806Kontratsözle_me.pdf</t>
+  </si>
+  <si>
+    <t>LBT0806800-1800-2600BTK1672848675851.pdf</t>
+  </si>
+  <si>
+    <t>LBT0806_TSS.pdf</t>
+  </si>
+  <si>
+    <t>BT08071670179466899.pdf</t>
+  </si>
+  <si>
+    <t>BT0807Kontratsözle_me.pdf</t>
+  </si>
+  <si>
+    <t>LBT0807ASBUILT.pdf</t>
+  </si>
+  <si>
+    <t>LBT0807_BTK1672853050435.pdf</t>
+  </si>
+  <si>
+    <t>LBT0807_TSSR1672852810098.pdf</t>
+  </si>
+  <si>
+    <t>BT08081670179731895.pdf</t>
+  </si>
+  <si>
+    <t>BT0808Kontratsözle_me.pdf</t>
+  </si>
+  <si>
+    <t>LBT0808BTKDOSYASI.pdf</t>
+  </si>
+  <si>
+    <t>BT0809.pdf</t>
+  </si>
+  <si>
+    <t>BT0809Kontratsözle_me.pdf</t>
+  </si>
+  <si>
+    <t>LBT0809_800-1800-2600BTK1672947187440.pdf</t>
+  </si>
+  <si>
+    <t>LBT0809_TSS1672947157112.pdf</t>
+  </si>
+  <si>
+    <t>BT08131670231576100.pdf</t>
+  </si>
+  <si>
+    <t>BT0813Kontratsözle_me.pdf</t>
+  </si>
+  <si>
+    <t>LBT0813800-1800-2600BTK1672847567818.pdf</t>
+  </si>
+  <si>
+    <t>LBT0813_TSSR1672847504791.pdf</t>
+  </si>
+  <si>
+    <t>GAP MAH. TURGUT ÖZAL BULV. TANGÜNER APT. NO:5, MERKEZ/BATMAN</t>
+  </si>
+  <si>
+    <t>KULTUR MAH. 2638. SK. EKINCI APT., MERKEZ/BATMAN</t>
+  </si>
+  <si>
+    <t>800-1800Mhz, ÖLÇEKLİ YERLEŞİM VE GÜVENLİK</t>
+  </si>
+  <si>
+    <t>SURVEY  PERSON, ONUR DURTAŞ</t>
+  </si>
+  <si>
+    <t>BAHCELIEVLER MAH. 1635. SK. NO:6, MERKEZ/BATMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KURULACAĞI ADRES :, BAHÇELİEVLER MAHALLESİ 1635.SOKAK NO:6 </t>
+  </si>
+  <si>
+    <t>1- Survey aşağıdaki alternatifleri mutlaka içermelidir., • Duvarlara veya bina köşelerine montaj &gt; ilave 4X Anten / ilave 3X Anten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800&amp;1800&amp;2600MHZ,  ÖLÇEKLĠ YERLEġĠM VE GÜVENLĠK </t>
+  </si>
+  <si>
+    <t>SÜLEYMAN PĠRĠNÇÇĠ, Survey GUIDELINE</t>
+  </si>
+  <si>
+    <t>E 41° 07' 21,80'', BATMAN 16. CAD.</t>
+  </si>
+  <si>
+    <t>HİDAYET TUNCAY, Survey GUIDELINE</t>
   </si>
   <si>
     <t>KISMET MAH. 17.SOK. NO:48 VEYSEL KARANİ CAD., MERKEZ/BATMAN</t>
   </si>
   <si>
-    <t>GAP MAH. TURGUT ÖZAL BULV. TANGÜNER APT. NO:5, MERKEZ/BATMAN</t>
-  </si>
-  <si>
-    <t>BAHCELIEVLER MAH. 1635. SK. NO:6, MERKEZ/BATMAN</t>
-  </si>
-  <si>
-    <t>N: 37° 53' 28.60"    E: 41° 07' 25.70"</t>
+    <t xml:space="preserve">KURULACAĞI ADRES :, KISMET MAH. 17.SOK. NO:48 VEYSEL KARANİ CAD. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSS ÇALIŞMASINA , KATILANLAR/ATTENDED </t>
+  </si>
+  <si>
+    <t>BAHÇELİEVLER MAH. 1634.SOK. ERDAL APT. NO:36, MERKEZ/BATMAN</t>
+  </si>
+  <si>
+    <t>TURK TELEKOM   GSM / UMTS / LTE , SITE AS-BUILT REPORT</t>
+  </si>
+  <si>
+    <t>KURULACAĞI ADRES :, KOORDİNATLAR :</t>
+  </si>
+  <si>
+    <t>BATMAN BELEDIYESI CAMILITEPE 2 SU DEPOSU, MERKEZ/BATMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÖLÇEKLİ YERLEŞİM VE GÜVENLİK , MESAFESİ PLANLARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800&amp;1800&amp;2600Mhz,  ÖLÇEKLİ YERLEŞİM VE GÜVENLİK </t>
+  </si>
+  <si>
+    <t>KÜLTÜR MAH. MAHATMA GANDHİ BULV. ÜNLÜ APT., MERKEZ/BATMAN</t>
+  </si>
+  <si>
+    <t>ONUR DURTAŞ, Survey GUIDELINE</t>
+  </si>
+  <si>
+    <t>N: 37° 54' 13.53"    E: 41° 07' 56.21"</t>
+  </si>
+  <si>
+    <t>N: 37° 54' 11.81"    E: 41° 07' 33.01"</t>
+  </si>
+  <si>
+    <t>4.5G LTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KATILANLAR/ATTENDED </t>
+  </si>
+  <si>
+    <t>N: 37° 53' 24.80"    E: 41° 08' 07.70"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SİTE NO  : </t>
+  </si>
+  <si>
+    <t>Survey GUIDELINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,5G LTE  </t>
+  </si>
+  <si>
+    <t>EREN YÜREK</t>
+  </si>
+  <si>
+    <t>N 37° 52' 49,79''</t>
+  </si>
+  <si>
+    <t>ERMAN TUĞAL</t>
   </si>
   <si>
     <t>N: 37° 52' 49.36"    E: 41° 07' 03.64"</t>
   </si>
   <si>
-    <t>N: 37° 54' 13.53"    E: 41° 07' 56.21"</t>
-  </si>
-  <si>
-    <t>N: 37° 53' 24.80"    E: 41° 08' 07.70"</t>
+    <t>LBT0806</t>
+  </si>
+  <si>
+    <t>VEYSEL KARANİ CAD.</t>
+  </si>
+  <si>
+    <t>N: 37° 53' 48.40"    E: 41° 08' 18.37"</t>
+  </si>
+  <si>
+    <t>ERSTECNİC</t>
+  </si>
+  <si>
+    <t>N: 37° 53' 55.50"    E: 41° 08' 57.70"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5G </t>
+  </si>
+  <si>
+    <t>4.5G-LTE</t>
+  </si>
+  <si>
+    <t>MEYDAN MAHALLESİ</t>
+  </si>
+  <si>
+    <t>N: 37° 53' 48.43"    E: 41° 07' 29.98"</t>
   </si>
 </sst>
 </file>
@@ -419,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,10 +639,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -452,10 +650,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -468,10 +666,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -479,10 +677,302 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
